--- a/_documentacion/19_CU_Blog.xlsx
+++ b/_documentacion/19_CU_Blog.xlsx
@@ -117,18 +117,10 @@
 Blog</t>
   </si>
   <si>
-    <t>Tab " Lista" seleccionado por default.
-Formulario para la captura de un nuevo.
-Tabla de contenido en la que se muestran los registros en el sistema.</t>
-  </si>
-  <si>
     <t>El formulario contiene los campos de registros inhabilitados.
 No se muestra la tabla de contenido.</t>
   </si>
   <si>
-    <t>Registrar</t>
-  </si>
-  <si>
     <t>Titulo</t>
   </si>
   <si>
@@ -268,6 +260,13 @@
   </si>
   <si>
     <t>El registro es eliminado logicamente del sistema</t>
+  </si>
+  <si>
+    <t>Formulario para la captura de un nuevo.
+Tabla de contenido en la que se muestran los registros guardados en el sistema.</t>
+  </si>
+  <si>
+    <t>Agregar</t>
   </si>
 </sst>
 </file>
@@ -307,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,12 +316,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,29 +364,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,9 +670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +687,7 @@
     <col min="10" max="10" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.140625" style="4" customWidth="1"/>
     <col min="12" max="12" width="15" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="4" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="4" customWidth="1"/>
     <col min="15" max="15" width="18.140625" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" style="4" customWidth="1"/>
@@ -713,22 +706,22 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,10 +803,10 @@
         <v>22</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -829,82 +822,82 @@
         <v>22</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="135" x14ac:dyDescent="0.25">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="M6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="M6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J8" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="K8" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J9" s="13" t="s">
-        <v>37</v>
+      <c r="J9" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="K9" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J10" s="13" t="s">
-        <v>38</v>
+      <c r="J10" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J11" s="13" t="s">
-        <v>39</v>
+      <c r="J11" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>27</v>
@@ -912,54 +905,54 @@
     </row>
     <row r="12" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="G12" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="K12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="K13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J13" s="13" t="s">
+      <c r="K14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J14" s="13" t="s">
+      <c r="K15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J16" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J16" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>27</v>
@@ -967,54 +960,54 @@
     </row>
     <row r="17" spans="6:15" ht="75" x14ac:dyDescent="0.25">
       <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J18" s="13" t="s">
+      <c r="K19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="13" t="s">
+      <c r="K20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J21" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>27</v>
@@ -1022,54 +1015,54 @@
     </row>
     <row r="22" spans="6:15" ht="75" x14ac:dyDescent="0.25">
       <c r="G22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="4" t="s">
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="K23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J23" s="13" t="s">
+      <c r="K24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J24" s="13" t="s">
+      <c r="K25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>27</v>
@@ -1077,102 +1070,102 @@
     </row>
     <row r="27" spans="6:15" ht="75" x14ac:dyDescent="0.25">
       <c r="G27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="6:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="J31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="J30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="6:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="J31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="6:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="9" t="s">
+      <c r="K32" s="8"/>
+      <c r="M32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="O32" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="K32" s="8"/>
-      <c r="M32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K33" s="8"/>
-      <c r="M33" s="9" t="s">
-        <v>67</v>
+      <c r="M33" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>27</v>
@@ -1180,81 +1173,81 @@
     </row>
     <row r="34" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D34" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="M35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="K35" s="8"/>
-      <c r="M35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="4:15" ht="75" x14ac:dyDescent="0.25">
       <c r="G36" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>71</v>
+      <c r="O36" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="J37" s="13" t="s">
-        <v>36</v>
+      <c r="J37" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="K37" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="J38" s="13" t="s">
-        <v>37</v>
+      <c r="J38" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="K38" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="J39" s="13" t="s">
-        <v>38</v>
+      <c r="J39" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="J40" s="13" t="s">
-        <v>39</v>
+      <c r="J40" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>27</v>
@@ -1262,54 +1255,54 @@
     </row>
     <row r="41" spans="4:15" ht="75" x14ac:dyDescent="0.25">
       <c r="G41" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="K41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J41" s="13" t="s">
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="J42" s="13" t="s">
+      <c r="K43" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J44" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="J43" s="13" t="s">
+      <c r="K44" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J45" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="J44" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="J45" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>27</v>
@@ -1317,54 +1310,54 @@
     </row>
     <row r="46" spans="4:15" ht="75" x14ac:dyDescent="0.25">
       <c r="G46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="J47" s="13" t="s">
+      <c r="K48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J49" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="J48" s="13" t="s">
+      <c r="K49" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J50" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J49" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J50" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>27</v>
@@ -1372,54 +1365,54 @@
     </row>
     <row r="51" spans="5:15" ht="75" x14ac:dyDescent="0.25">
       <c r="G51" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J51" s="13" t="s">
+      <c r="K51" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J53" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O51" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J52" s="13" t="s">
+      <c r="K53" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J54" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J53" s="13" t="s">
+      <c r="K54" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J55" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J54" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J55" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>27</v>
@@ -1427,102 +1420,102 @@
     </row>
     <row r="56" spans="5:15" ht="75" x14ac:dyDescent="0.25">
       <c r="G56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J58" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="5:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="J60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J57" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J58" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J59" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="5:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="J60" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="61" spans="5:15" ht="75" x14ac:dyDescent="0.25">
       <c r="F61" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61" s="8"/>
+      <c r="M61" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K61" s="8"/>
-      <c r="M61" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O61" s="9" t="s">
-        <v>60</v>
+      <c r="O61" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="5:15" ht="60" x14ac:dyDescent="0.25">
       <c r="F62" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K62" s="8"/>
-      <c r="M62" s="9" t="s">
-        <v>67</v>
+      <c r="M62" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="O62" s="4" t="s">
         <v>27</v>
@@ -1530,43 +1523,43 @@
     </row>
     <row r="63" spans="5:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E63" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K63" s="8"/>
-      <c r="M63" s="9" t="s">
-        <v>67</v>
+      <c r="M63" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="J63:K63"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J61:K61"/>
     <mergeCell ref="J62:K62"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
